--- a/thesis_experiments/data_thesis/stats_final/stats_final.xlsx
+++ b/thesis_experiments/data_thesis/stats_final/stats_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itznu\PycharmProjects\use-of-snn\thesis_experiments\data_thesis\stats_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CC64CB-4EEF-4D7B-80CC-86FE0C281588}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D48437-4CD6-4B05-AA67-2680648FAD5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27990" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -91,6 +91,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000%"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -128,15 +132,289 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -147,6 +425,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4751A04E-96FE-48EC-9128-7ECE52696755}" name="Table1" displayName="Table1" ref="A1:K24" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:K24" xr:uid="{8531F16D-B939-45AE-9735-889FE12E3DAF}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{352ED070-11EF-49DB-BC59-1320DE2D780F}" name="Part of the dataset" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{8AEAF093-DDED-4621-B994-FD016EF60943}" name="Model" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{40909E2C-1739-4EDF-AA11-A56C6369C7AC}" name="Average accuracy" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{CF5FE015-8C34-42E5-99AD-5A13BB23E798}" name="Maximum accuracy" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{B74D66FF-4E2F-4450-A899-34AFAC722DD9}" name="Accuracy SD" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{DD0B5F6A-FE2D-48C3-801E-C4A979678796}" name="Average precision" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{DF93074A-148C-4164-BE5F-52C7D64BC2EB}" name="Maximum precision" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{E0A77685-73A0-4238-A1AE-9A9DF1DD9B66}" name="Average recall" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{D69AB7DE-CA73-487D-941C-5484704999A4}" name="Maximum recall" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{69450B74-2318-4DEE-A3AC-9AADD6A4884D}" name="Average F1" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{221A03D3-FEF3-40E4-87B8-62917D890EE4}" name="Maximum F1" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium25" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -415,57 +713,57 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -476,31 +774,31 @@
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>0.50597826086956521</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>0.52853260869565222</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>2.2997259044187719E-2</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4">
         <v>0.49803737142575172</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="4">
         <v>0.52631578947368418</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="4">
         <v>0.72812500000000002</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="4">
         <v>1</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="4">
         <v>0.55640952562004509</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="4">
         <v>0.68761220825852776</v>
       </c>
     </row>
@@ -511,31 +809,31 @@
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>0.50394021739130435</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>0.52309782608695654</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>1.9484641010221529E-2</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>0.51844725214010778</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="4">
         <v>0.54166666666666663</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="4">
         <v>0.63984375000000004</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="4">
         <v>0.96875</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="4">
         <v>0.53346126326278664</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="4">
         <v>0.67883211678832123</v>
       </c>
     </row>
@@ -546,31 +844,31 @@
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>0.49048913043478248</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>0.52173913043478259</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>2.2076191316945541E-2</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>0.51864629188900369</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="4">
         <v>0.60606060606060608</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="4">
         <v>0.47291666666666671</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="4">
         <v>0.96614583333333337</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="4">
         <v>0.45364315359910778</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="4">
         <v>0.67824497257769656</v>
       </c>
     </row>
@@ -581,31 +879,31 @@
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>0.48532608695652169</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>0.52038043478260865</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>2.0413620324920469E-2</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>0.51395432899292037</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="4">
         <v>0.61111111111111116</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="4">
         <v>0.46510416666666671</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="4">
         <v>0.9609375</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="4">
         <v>0.44844955014059729</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="4">
         <v>0.67644362969752525</v>
       </c>
     </row>
@@ -616,6 +914,46 @@
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="C6" s="5">
+        <v>0.50672043010752688</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.52956989247311825</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2.0433251345862671E-2</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.52887029502286542</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.55773195876288661</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.97422680412371132</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.4903721890302436</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0.67681289167412717</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -624,31 +962,31 @@
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>0.48062500000000002</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>0.54062500000000002</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>4.3296258178071492E-2</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="4">
         <v>0.49958646384174488</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="4">
         <v>0.54121863799283154</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="4">
         <v>0.55838150289017352</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="4">
         <v>1</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="4">
         <v>0.49906394104067042</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="4">
         <v>0.70182555780933065</v>
       </c>
     </row>
@@ -659,31 +997,31 @@
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>0.484375</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>0.5625</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>3.6562351614133841E-2</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="4">
         <v>0.50751101538311028</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="4">
         <v>0.56088560885608851</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="4">
         <v>0.5034682080924856</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="4">
         <v>0.93063583815028905</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="4">
         <v>0.47359230170789762</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="4">
         <v>0.68468468468468469</v>
       </c>
     </row>
@@ -694,31 +1032,31 @@
       <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>0.51406249999999998</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>0.54374999999999996</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>2.701313016643736E-2</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="4">
         <v>0.53260171348512109</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="4">
         <v>0.54285714285714282</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="4">
         <v>0.75780346820809252</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="4">
         <v>0.98843930635838151</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="4">
         <v>0.60443325901942901</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="4">
         <v>0.70081967213114749</v>
       </c>
     </row>
@@ -729,31 +1067,31 @@
       <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>0.51781250000000001</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>0.54374999999999996</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>2.744351838574801E-2</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="4">
         <v>0.53540707693285383</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="4">
         <v>0.55217391304347829</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="4">
         <v>0.76242774566474003</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="4">
         <v>0.98843930635838151</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="4">
         <v>0.60963009357588194</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="4">
         <v>0.70081967213114749</v>
       </c>
     </row>
@@ -764,6 +1102,46 @@
       <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="C12" s="5">
+        <v>0.50092592592592589</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.52469135802469136</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1.8973045623408659E-2</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.53798435087791707</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0.50977011494252866</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0.7183908045977011</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0.51331838999396551</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0.60240963855421692</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -772,31 +1150,31 @@
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>0.48918269230769218</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <v>0.54086538461538458</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <v>2.4178279278228531E-2</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="4">
         <v>0.4940738809439541</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="4">
         <v>0.54042553191489362</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="4">
         <v>0.66619047619047611</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="4">
         <v>1</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="4">
         <v>0.55890155521508555</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="4">
         <v>0.67092651757188493</v>
       </c>
     </row>
@@ -807,31 +1185,31 @@
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <v>0.49615384615384611</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>0.54086538461538458</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <v>2.4831988036578611E-2</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="4">
         <v>0.50128087908811614</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="4">
         <v>0.54008438818565396</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="4">
         <v>0.72904761904761906</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="4">
         <v>1</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="4">
         <v>0.58694947549597254</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="4">
         <v>0.67092651757188493</v>
       </c>
     </row>
@@ -842,31 +1220,31 @@
       <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <v>0.49254807699999997</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3">
         <v>0.52163461499999997</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <v>1.2539488E-2</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="4">
         <v>0.49481846600000001</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="4">
         <v>0.54471544699999996</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="4">
         <v>0.514285714</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="4">
         <v>0.928571429</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="4">
         <v>0.44416209099999998</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="4">
         <v>0.65076661000000002</v>
       </c>
     </row>
@@ -877,31 +1255,31 @@
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <v>0.49326923099999997</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="3">
         <v>0.52403846200000004</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="3">
         <v>1.3915573000000001E-2</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="4">
         <v>0.48701338500000002</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="4">
         <v>0.54838709699999999</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="4">
         <v>0.51190476200000001</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="4">
         <v>0.93809523800000005</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="4">
         <v>0.44219717800000002</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="4">
         <v>0.65187713300000005</v>
       </c>
     </row>
@@ -912,6 +1290,46 @@
       <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="C18" s="5">
+        <v>0.50095238095238093</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.52380952380952384</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2.3116910139366259E-2</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.50526457879545472</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.5300546448087432</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0.48867924528301893</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0.75471698113207553</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0.48918437060174219</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0.61068702290076338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -920,31 +1338,31 @@
       <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="3">
         <v>0.50132275132275128</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="3">
         <v>0.54761904761904767</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="3">
         <v>2.7660818193973941E-2</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="4">
         <v>0.36455108359133132</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="4">
         <v>0.58823529411764708</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="4">
         <v>0.69197530864197532</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="4">
         <v>1</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="4">
         <v>0.47326261455416802</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="4">
         <v>0.70769230769230773</v>
       </c>
     </row>
@@ -955,31 +1373,31 @@
       <c r="B21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="3">
         <v>0.50925925925925919</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="3">
         <v>0.5714285714285714</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="3">
         <v>3.6648735919952338E-2</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="4">
         <v>0.3708826123041809</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="4">
         <v>0.58823529411764708</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="4">
         <v>0.62861552028218692</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="4">
         <v>1</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="4">
         <v>0.45818649225201807</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="4">
         <v>0.70769230769230773</v>
       </c>
     </row>
@@ -990,31 +1408,31 @@
       <c r="B22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="3">
         <v>0.46005290999999998</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="3">
         <v>0.571428571</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="3">
         <v>5.9164492999999999E-2</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="4">
         <v>0.45561911399999999</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="4">
         <v>0.6</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="4">
         <v>0.39014358999999998</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="4">
         <v>0.52380952400000003</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="4">
         <v>0.41301737599999999</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="4">
         <v>0.55813953500000002</v>
       </c>
     </row>
@@ -1025,31 +1443,31 @@
       <c r="B23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="3">
         <v>0.47328042300000001</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="3">
         <v>0.61904761900000005</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="3">
         <v>7.4170327999999994E-2</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="4">
         <v>0.46460364300000001</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="4">
         <v>0.65</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="4">
         <v>0.395784678</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="4">
         <v>0.590909091</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="4">
         <v>0.42136400400000001</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="4">
         <v>0.61904761900000005</v>
       </c>
     </row>
@@ -1060,9 +1478,39 @@
       <c r="B24" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="C24" s="5">
+        <v>0.508994708994709</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.59523809523809523</v>
+      </c>
+      <c r="E24" s="5">
+        <v>6.3592357760634988E-2</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.50637937459010285</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0.48535423245568171</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0.49153915795119713</v>
+      </c>
+      <c r="K24" s="6">
+        <v>0.63829787234042556</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/thesis_experiments/data_thesis/stats_final/stats_final.xlsx
+++ b/thesis_experiments/data_thesis/stats_final/stats_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itznu\PycharmProjects\use-of-snn\thesis_experiments\data_thesis\stats_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D48437-4CD6-4B05-AA67-2680648FAD5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCECDA7-DFE2-45B0-9646-C7A30A9602FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27990" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -713,7 +713,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
